--- a/bots/crawl_ch/output/vegi_coop_2023-01-13.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O531"/>
+  <dimension ref="A1:O530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -3701,110 +3701,110 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6408582</t>
+          <t>3091086</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fenchel ca. 500g</t>
+          <t>Kiwi 1 Stück</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/naturaplan-bio-fenchel-ca/p/6408582</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/kiwi-1-stueck/p/3091086</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E49" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.43/100g</t>
+          <t>0.80/1ST</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fenchel ca. 500g 2.15 Schweizer Franken</t>
+          <t>Kiwi 1 Stück 0.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6864087</t>
+          <t>6408582</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ingwer ca. 200g</t>
+          <t>Naturaplan Bio Fenchel ca. 500g</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/ingwer-ca/p/6864087</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/naturaplan-bio-fenchel-ca/p/6408582</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E50" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.45/100g</t>
+          <t>0.43/100g</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3824,39 +3824,39 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Ingwer ca. 200g 0.90 Schweizer Franken</t>
+          <t>Naturaplan Bio Fenchel ca. 500g 2.15 Schweizer Franken</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6521369</t>
+          <t>6864087</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Zitrone 1 Stück</t>
+          <t>Ingwer ca. 200g</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/zitrone-1-stueck/p/6521369</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/ingwer-ca/p/6864087</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
         <v>3.5</v>
@@ -3864,146 +3864,142 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.45/100g</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
           <t>0.45</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>0.45/1ST</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Zitrone 1 Stück 2 + 1 Aktion 0.45 Schweizer Franken</t>
+          <t>Ingwer ca. 200g 0.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7071300</t>
+          <t>6521369</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lauchstangen ca. 500g</t>
+          <t>Zitrone 1 Stück</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/lauchstangen-ca/p/7071300</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/zitrone-1-stueck/p/6521369</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>0.45/1ST</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Lauchstangen ca. 500g 2.80 Schweizer Franken</t>
+          <t>Zitrone 1 Stück 2 + 1 Aktion 0.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5793389</t>
+          <t>7071300</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Jungspinat</t>
+          <t>Lauchstangen ca. 500g</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-naturaplan-bio-jungspinat/p/5793389</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/lauchstangen-ca/p/7071300</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4013,7 +4009,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4023,46 +4019,42 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Jungspinat 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Lauchstangen ca. 500g 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3090520</t>
+          <t>5793389</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel Gala ca. 1kg</t>
+          <t>Betty Bossi Naturaplan Bio Jungspinat</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-gala-ca/p/3090520</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-naturaplan-bio-jungspinat/p/5793389</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="E54" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -4071,67 +4063,71 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>6.70/1kg</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel Gala ca. 1kg 6.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Jungspinat 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6136483</t>
+          <t>3090520</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fine Food Tomaten Red Desire</t>
+          <t>Naturaplan Bio Äpfel Gala ca. 1kg</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/fine-food-tomaten-red-desire/p/6136483</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-gala-ca/p/3090520</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -4140,68 +4136,68 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>6.70/1kg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Fine Food Tomaten Red Desire 5.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Äpfel Gala ca. 1kg 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6621859</t>
+          <t>6136483</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Süsskartoffeln</t>
+          <t>Fine Food Tomaten Red Desire</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-bio-suesskartoffeln/p/6621859</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/fine-food-tomaten-red-desire/p/6136483</t>
         </is>
       </c>
       <c r="D56" t="n">
+        <v>87</v>
+      </c>
+      <c r="E56" t="n">
         <v>5</v>
       </c>
-      <c r="E56" t="n">
-        <v>4</v>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -4209,12 +4205,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.83/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4224,7 +4220,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4234,39 +4230,39 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Süsskartoffeln 4.95 Schweizer Franken</t>
+          <t>Fine Food Tomaten Red Desire 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3406200</t>
+          <t>6621859</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Schnittlauch 1 Bund</t>
+          <t>Naturaplan Bio Süsskartoffeln</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/schnittlauch-1-bund/p/3406200</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-bio-suesskartoffeln/p/6621859</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4278,12 +4274,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>11.00/100g</t>
+          <t>0.83/100g</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4293,7 +4289,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4303,46 +4299,42 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Schnittlauch 1 Bund 1.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Süsskartoffeln 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5971337</t>
+          <t>3406200</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Champignons weiss</t>
+          <t>Schnittlauch 1 Bund</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/champignons-weiss/p/5971337</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/schnittlauch-1-bund/p/3406200</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="E58" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -4351,12 +4343,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.95/100g</t>
+          <t>11.00/100g</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4366,7 +4358,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4376,39 +4368,43 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Champignons weiss 2.85 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
+          <t>Schnittlauch 1 Bund 1.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6825743</t>
+          <t>5971337</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Prix Garantie Eisberg Salat</t>
+          <t>Champignons weiss</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/prix-garantie-eisberg-salat/p/6825743</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/champignons-weiss/p/5971337</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
         <v>4.5</v>
@@ -4420,12 +4416,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.70/100g</t>
+          <t>0.95/100g</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4435,7 +4431,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4445,39 +4441,35 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Prix Garantie Eisberg Salat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Champignons weiss 2.85 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6675215</t>
+          <t>6825743</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Blumenkohl ca. 900g</t>
+          <t>Prix Garantie Eisberg Salat</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/blumenkohl-ca/p/6675215</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/prix-garantie-eisberg-salat/p/6825743</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -4486,15 +4478,19 @@
       <c r="E60" t="n">
         <v>4.5</v>
       </c>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.30/100g</t>
+          <t>0.70/100g</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4504,7 +4500,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4514,39 +4510,43 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Blumenkohl ca. 900g 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
+          <t>Prix Garantie Eisberg Salat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3090888</t>
+          <t>6675215</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fenchel ca. 500g</t>
+          <t>Blumenkohl ca. 900g</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/fenchel-ca/p/3090888</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/blumenkohl-ca/p/6675215</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="E61" t="n">
         <v>4.5</v>
@@ -4554,7 +4554,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4579,56 +4579,52 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Fenchel ca. 500g 1.50 Schweizer Franken</t>
+          <t>Blumenkohl ca. 900g 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4018506</t>
+          <t>3090888</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Prix Garantie Dattel Tomaten</t>
+          <t>Fenchel ca. 500g</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/prix-garantie-dattel-tomaten/p/4018506</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/fenchel-ca/p/3090888</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E62" t="n">
         <v>4.5</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.36/100g</t>
+          <t>0.30/100g</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4638,7 +4634,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4648,52 +4644,56 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Prix Garantie Dattel Tomaten 1.80 Schweizer Franken</t>
+          <t>Fenchel ca. 500g 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6293670</t>
+          <t>4018506</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Snack Gurken</t>
+          <t>Prix Garantie Dattel Tomaten</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/gurken/snack-gurken/p/6293670</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/prix-garantie-dattel-tomaten/p/4018506</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1.18/100g</t>
+          <t>0.36/100g</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4713,52 +4713,52 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'gurken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Snack Gurken 2.95 Schweizer Franken</t>
+          <t>Prix Garantie Dattel Tomaten 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3090931</t>
+          <t>6293670</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lauch grün ca. 500g</t>
+          <t>Snack Gurken</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/lauch-gruen-ca/p/3090931</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/gurken/snack-gurken/p/6293670</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.40/100g</t>
+          <t>1.18/100g</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4778,56 +4778,52 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'gurken']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Lauch grün ca. 500g 2.00 Schweizer Franken</t>
+          <t>Snack Gurken 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3955468</t>
+          <t>3090931</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwiebeln</t>
+          <t>Lauch grün ca. 500g</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/naturaplan-bio-zwiebeln/p/3955468</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/lauch-fenchel/lauch-gruen-ca/p/3090931</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.52/100g</t>
+          <t>0.40/100g</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4837,7 +4833,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4847,42 +4843,42 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'lauch-fenchel']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwiebeln 2.60 Schweizer Franken</t>
+          <t>Lauch grün ca. 500g 2.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3371561</t>
+          <t>3955468</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Orangen blond ca. 1kg</t>
+          <t>Naturaplan Bio Zwiebeln</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/naturaplan-bio-orangen-blond-ca/p/3371561</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/naturaplan-bio-zwiebeln/p/3955468</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4891,112 +4887,112 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3.25/1kg</t>
+          <t>0.52/100g</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Orangen blond ca. 1kg 3.25 Schweizer Franken</t>
+          <t>Naturaplan Bio Zwiebeln 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4314963</t>
+          <t>3371561</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Primagusto Cherry-Rispentomaten</t>
+          <t>Naturaplan Bio Orangen blond ca. 1kg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/primagusto-cherry-rispentomaten/p/4314963</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/naturaplan-bio-orangen-blond-ca/p/3371561</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E67" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>3.25/1kg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Primagusto Cherry-Rispentomaten 4.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Orangen blond ca. 1kg 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5061,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5134,7 +5130,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5268,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5341,7 +5337,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5402,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5532,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5601,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5666,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5731,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5784,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5857,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5914,7 +5910,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5979,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6048,7 +6044,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6113,7 +6109,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6178,7 +6174,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6243,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6312,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6377,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6450,7 +6446,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6511,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6576,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6645,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6710,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6779,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6844,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6917,7 +6913,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -6986,7 +6982,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7055,7 +7051,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7120,7 +7116,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7189,7 +7185,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7258,7 +7254,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7323,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7396,7 +7392,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7465,7 +7461,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7530,7 +7526,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7595,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7668,7 +7664,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7729,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7798,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7867,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -7940,7 +7936,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8005,7 +8001,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8070,7 +8066,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8135,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8204,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8269,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8338,7 +8334,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8407,7 +8403,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8476,7 +8472,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8541,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8610,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8683,7 +8679,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8752,7 +8748,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8813,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8890,7 +8886,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -8959,7 +8955,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9028,7 +9024,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9101,7 +9097,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9166,7 +9162,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9231,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9300,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9369,7 +9365,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9442,7 +9438,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9507,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9584,7 +9580,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9653,7 +9649,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9722,7 +9718,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9787,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9860,7 +9856,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9929,7 +9925,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -9994,7 +9990,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10063,7 +10059,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10128,7 +10124,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10193,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10262,7 +10258,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10327,7 +10323,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10396,7 +10392,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10465,7 +10461,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10530,7 +10526,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10599,7 +10595,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10664,7 +10660,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10737,7 +10733,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10810,7 +10806,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10875,7 +10871,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10928,7 +10924,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -10991,13 +10987,13 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi 4.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Kiwi - Online kein Bestand 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11066,7 +11062,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11129,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11202,7 +11198,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11267,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11344,7 +11340,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11417,7 +11413,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11486,7 +11482,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11555,7 +11551,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11620,7 +11616,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11685,7 +11681,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11754,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11827,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11900,7 +11896,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -11973,7 +11969,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12038,7 +12034,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12107,7 +12103,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12176,7 +12172,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12245,7 +12241,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12294,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12367,7 +12363,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12436,7 +12432,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12505,7 +12501,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12578,7 +12574,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12647,7 +12643,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12712,7 +12708,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12781,7 +12777,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12844,7 +12840,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12913,7 +12909,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12974,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13047,7 +13043,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13110,7 +13106,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13179,7 +13175,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13252,7 +13248,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13325,7 +13321,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13394,7 +13390,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13463,7 +13459,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13532,7 +13528,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13601,7 +13597,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13670,7 +13666,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13739,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13812,7 +13808,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13881,7 +13877,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13942,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14011,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14084,7 +14080,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14153,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14222,7 +14218,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14287,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14364,7 +14360,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14433,7 +14429,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14502,7 +14498,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14567,7 +14563,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14632,7 +14628,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14697,7 +14693,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14762,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14839,7 +14835,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14908,7 +14904,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -14959,7 +14955,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15024,7 +15020,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15093,7 +15089,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15166,7 +15162,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15239,7 +15235,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15288,7 +15284,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15351,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15420,7 +15416,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15485,7 +15481,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15554,7 +15550,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15619,7 +15615,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15692,7 +15688,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15759,7 +15755,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15824,7 +15820,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15893,7 +15889,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -15962,7 +15958,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16031,7 +16027,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16100,7 +16096,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16173,7 +16169,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16242,7 +16238,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16307,7 +16303,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16372,7 +16368,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16445,7 +16441,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16514,7 +16510,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16583,7 +16579,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16656,7 +16652,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16729,7 +16725,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16798,7 +16794,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16871,7 +16867,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -16940,7 +16936,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17005,7 +17001,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17074,7 +17070,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17143,7 +17139,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17212,7 +17208,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17281,7 +17277,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17354,7 +17350,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17427,7 +17423,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17500,7 +17496,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17573,7 +17569,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17642,7 +17638,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17713,7 +17709,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17786,7 +17782,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17859,7 +17855,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -17932,7 +17928,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18001,7 +17997,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18074,7 +18070,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18147,7 +18143,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18212,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18285,7 +18281,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18358,7 +18354,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18423,7 +18419,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18492,7 +18488,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18565,7 +18561,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18638,7 +18634,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18707,7 +18703,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18776,7 +18772,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18845,7 +18841,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18918,7 +18914,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -18969,7 +18965,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19038,7 +19034,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19103,7 +19099,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19176,7 +19172,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19241,7 +19237,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19314,7 +19310,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19379,7 +19375,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19444,7 +19440,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19517,7 +19513,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19590,7 +19586,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19659,7 +19655,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19728,7 +19724,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19801,7 +19797,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19866,7 +19862,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -19935,7 +19931,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20000,7 +19996,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20049,7 +20045,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20122,7 +20118,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20191,7 +20187,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20252,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20329,7 +20325,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20402,7 +20398,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20475,7 +20471,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20540,7 +20536,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20603,7 +20599,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20668,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20741,7 +20737,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20814,7 +20810,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20887,7 +20883,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -20956,7 +20952,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21025,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21092,7 +21088,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21157,7 +21153,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21230,7 +21226,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21299,7 +21295,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21372,7 +21368,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21445,7 +21441,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21510,7 +21506,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21575,7 +21571,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21648,7 +21644,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21717,7 +21713,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21782,7 +21778,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21855,7 +21851,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -21928,7 +21924,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22001,7 +21997,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22070,7 +22066,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22139,7 +22135,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22212,7 +22208,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22277,7 +22273,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22346,7 +22342,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22415,7 +22411,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22480,7 +22476,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22553,7 +22549,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22622,7 +22618,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22695,7 +22691,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22768,7 +22764,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22841,7 +22837,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22914,7 +22910,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -22977,13 +22973,13 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Fairtrade Papaya 1 Stück 2.85 Schweizer Franken</t>
+          <t>Fairtrade Papaya 1 Stück - Online kein Bestand 2.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23056,7 +23052,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23109,7 +23105,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23182,7 +23178,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23255,7 +23251,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23322,7 +23318,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23385,7 +23381,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23450,7 +23446,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23523,7 +23519,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23592,7 +23588,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23661,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23734,7 +23730,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23807,7 +23803,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23870,7 +23866,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -23939,7 +23935,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24004,7 +24000,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24073,7 +24069,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24138,7 +24134,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24211,7 +24207,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24280,7 +24276,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24353,7 +24349,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24422,7 +24418,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24487,7 +24483,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24560,7 +24556,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24633,7 +24629,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24706,7 +24702,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24771,7 +24767,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24844,7 +24840,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24917,7 +24913,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -24986,7 +24982,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25059,7 +25055,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25126,7 +25122,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25199,7 +25195,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25272,7 +25268,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25341,7 +25337,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25406,7 +25402,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25475,7 +25471,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25548,7 +25544,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25621,7 +25617,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25694,7 +25690,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25767,7 +25763,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25836,7 +25832,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25899,7 +25895,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -25968,7 +25964,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26041,7 +26037,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26114,7 +26110,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26187,7 +26183,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26256,7 +26252,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26325,7 +26321,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26394,7 +26390,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26459,7 +26455,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26532,7 +26528,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26603,7 +26599,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26672,7 +26668,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26745,7 +26741,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26818,7 +26814,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26891,7 +26887,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -26940,7 +26936,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27013,7 +27009,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27086,7 +27082,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27159,7 +27155,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27232,7 +27228,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27305,7 +27301,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27368,7 +27364,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27441,7 +27437,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27514,7 +27510,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27587,7 +27583,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27660,7 +27656,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27729,7 +27725,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27802,7 +27798,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27875,7 +27871,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -27948,7 +27944,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28013,7 +28009,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28082,7 +28078,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28155,7 +28151,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28228,7 +28224,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28301,7 +28297,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28374,7 +28370,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28443,7 +28439,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28516,7 +28512,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28589,7 +28585,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28662,7 +28658,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28735,7 +28731,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28808,7 +28804,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28881,7 +28877,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -28946,7 +28942,7 @@
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29019,7 +29015,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29092,7 +29088,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29165,7 +29161,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29234,7 +29230,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29307,7 +29303,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29380,7 +29376,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29453,7 +29449,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29518,7 +29514,7 @@
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29591,7 +29587,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29660,7 +29656,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29733,7 +29729,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29806,7 +29802,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29879,7 +29875,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -29944,7 +29940,7 @@
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30017,7 +30013,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30070,7 +30066,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30135,7 +30131,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30208,7 +30204,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30281,7 +30277,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30354,7 +30350,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30425,7 +30421,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30496,7 +30492,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30569,7 +30565,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30640,7 +30636,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30713,7 +30709,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30786,7 +30782,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30859,7 +30855,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30928,7 +30924,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -30997,7 +30993,7 @@
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31070,7 +31066,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31135,7 +31131,7 @@
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31206,7 +31202,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31277,7 +31273,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31346,7 +31342,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31399,7 +31395,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31472,7 +31468,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31545,7 +31541,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31618,7 +31614,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31687,7 +31683,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31752,7 +31748,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31823,7 +31819,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31896,7 +31892,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -31969,7 +31965,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32038,7 +32034,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32107,7 +32103,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32178,7 +32174,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32247,7 +32243,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32310,7 +32306,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32383,7 +32379,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32456,7 +32452,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32529,7 +32525,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32576,7 +32572,7 @@
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32649,7 +32645,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32718,7 +32714,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32791,7 +32787,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32860,7 +32856,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32933,7 +32929,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -32998,7 +32994,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33071,7 +33067,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33140,7 +33136,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33209,7 +33205,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33274,7 +33270,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33343,7 +33339,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33408,7 +33404,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33481,7 +33477,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33532,7 +33528,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33595,7 +33591,7 @@
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33660,7 +33656,7 @@
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33733,7 +33729,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33806,7 +33802,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33871,7 +33867,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -33944,7 +33940,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34017,7 +34013,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34086,7 +34082,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34157,7 +34153,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34230,7 +34226,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34297,7 +34293,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34362,7 +34358,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34435,7 +34431,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34508,7 +34504,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34581,7 +34577,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34638,7 +34634,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34711,7 +34707,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34780,7 +34776,7 @@
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34853,7 +34849,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34900,7 +34896,7 @@
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -34965,7 +34961,7 @@
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35030,7 +35026,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35103,7 +35099,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35176,7 +35172,7 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35249,7 +35245,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35320,7 +35316,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35389,7 +35385,7 @@
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35460,7 +35456,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35533,7 +35529,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35606,7 +35602,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35677,7 +35673,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35750,7 +35746,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
@@ -35823,45 +35819,45 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>6868671</t>
+          <t>6996620</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Yolo Crunchies</t>
+          <t>Naturli Mince</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/yolo-crunchies/p/6868671</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/naturli-mince/p/6996620</t>
         </is>
       </c>
       <c r="D515" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Naturli</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>2.78/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -35871,7 +35867,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -35881,60 +35877,60 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t>Yolo Crunchies 6.95 Schweizer Franken</t>
+          <t>Naturli Mince 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>6996620</t>
+          <t>7032802</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Naturli Mince</t>
+          <t>The Green Mountain plant-based Schnitzel</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/naturli-mince/p/6996620</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-schnitzel/p/7032802</t>
         </is>
       </c>
       <c r="D516" t="n">
         <v>1</v>
       </c>
       <c r="E516" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Naturli</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>4.17/100g</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -35944,7 +35940,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -35954,12 +35950,12 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>Naturli Mince 5.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Schnitzel 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N516" t="inlineStr">
@@ -35969,45 +35965,45 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>7032802</t>
+          <t>6002381</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Schnitzel</t>
+          <t>Algues de Bretagne Meeressalat</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-schnitzel/p/7032802</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/algues-de-bretagne-meeressalat/p/6002381</t>
         </is>
       </c>
       <c r="D517" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E517" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Algues de Bretagne</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>4.17/100g</t>
+          <t>7.44/100g</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -36017,7 +36013,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -36027,12 +36023,12 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Schnitzel 7.50 Schweizer Franken</t>
+          <t>Algues de Bretagne Meeressalat 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N517" t="inlineStr">
@@ -36042,321 +36038,315 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>6002381</t>
+          <t>6073300</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Algues de Bretagne Meeressalat</t>
+          <t>Pro Specie Rara Explorer Box</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/algues-de-bretagne-meeressalat/p/6002381</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/pro-specie-rara-explorer-box/p/6073300</t>
         </is>
       </c>
       <c r="D518" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E518" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Algues de Bretagne</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>7.44/100g</t>
+          <t>8.25/1kg</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M518" t="inlineStr">
         <is>
-          <t>Algues de Bretagne Meeressalat 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N518" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Pro Specie Rara Explorer Box 16.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>6073300</t>
+          <t>7051692</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Explorer Box</t>
+          <t>Outlawz Food Geschnetzeltes Jäger*innen Art</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/pro-specie-rara-explorer-box/p/6073300</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/outlawz-food-geschnetzeltes-jaegerinnen-art/p/7051692</t>
         </is>
       </c>
       <c r="D519" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E519" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>OUTLAWZ Food</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>8.25/1kg</t>
+          <t>3.76/100g</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M519" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Explorer Box 16.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N519" t="inlineStr"/>
+          <t>Outlawz Food Geschnetzeltes Jäger*innen Art 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>7051692</t>
+          <t>5766628</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Outlawz Food Geschnetzeltes Jäger*innen Art</t>
+          <t>Primagusto Blutorangen ca. 1kg</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/outlawz-food-geschnetzeltes-jaegerinnen-art/p/7051692</t>
-        </is>
-      </c>
-      <c r="D520" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/primagusto-blutorangen-ca/p/5766628</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr"/>
       <c r="E520" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>3.76/100g</t>
+          <t>4.95/1kg</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M520" t="inlineStr">
         <is>
-          <t>Outlawz Food Geschnetzeltes Jäger*innen Art 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N520" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Primagusto Blutorangen ca. 1kg 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>5766628</t>
+          <t>6845831</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Primagusto Blutorangen ca. 1kg</t>
+          <t>Catalogna</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/primagusto-blutorangen-ca/p/5766628</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/catalogna/p/6845831</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="n">
         <v>0</v>
       </c>
-      <c r="F521" t="inlineStr">
-        <is>
-          <t>Primagusto</t>
-        </is>
-      </c>
+      <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>4.95/1kg</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M521" t="inlineStr">
         <is>
-          <t>Primagusto Blutorangen ca. 1kg 4.95 Schweizer Franken</t>
+          <t>Catalogna 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>6845831</t>
+          <t>5756809</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Catalogna</t>
+          <t>Betty Bossi Kopfsalat mit Herzen</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/catalogna/p/6845831</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-kopfsalat-mit-herzen/p/5756809</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="n">
         <v>0</v>
       </c>
-      <c r="F522" t="inlineStr"/>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -36366,7 +36356,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -36376,40 +36366,42 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>Catalogna 3.95 Schweizer Franken</t>
+          <t>Betty Bossi Kopfsalat mit Herzen 23% Aktion 4.95 Schweizer Franken statt 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>5756809</t>
+          <t>6984752</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Betty Bossi Kopfsalat mit Herzen</t>
+          <t>Betty Bossi Dinkel &amp;amp; Randen Mix</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-kopfsalat-mit-herzen/p/5756809</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-dinkel-randen-mix/p/6984752</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>1</v>
+      </c>
       <c r="E523" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -36423,7 +36415,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -36433,7 +36425,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -36443,42 +36435,44 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>Betty Bossi Kopfsalat mit Herzen 23% Aktion 4.95 Schweizer Franken statt 6.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N523" t="inlineStr"/>
+          <t>Betty Bossi Dinkel &amp;amp; Randen Mix 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N523" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>6984752</t>
+          <t>7031479</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel &amp;amp; Randen Mix</t>
+          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-dinkel-randen-mix/p/6984752</t>
-        </is>
-      </c>
-      <c r="D524" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-pasta-pesto-vegan/p/7031479</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr"/>
       <c r="E524" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -36487,12 +36481,12 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -36502,7 +36496,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -36512,44 +36506,46 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M524" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel &amp;amp; Randen Mix 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>7031479</t>
+          <t>6073299</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan</t>
+          <t>Naturaplan Bio Office Snack Box</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-pasta-pesto-vegan/p/7031479</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-office-snack-box/p/6073299</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>12</v>
+      </c>
       <c r="E525" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -36558,71 +36554,67 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>6.67/1kg</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M525" t="inlineStr">
         <is>
-          <t>Betty Bossi Pasta &amp;amp; Pesto Vegan 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N525" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Office Snack Box 20.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>6073299</t>
+          <t>6558113</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Office Snack Box</t>
+          <t>Prix Garantie Trauben weiss</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-office-snack-box/p/6073299</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/prix-garantie-trauben-weiss/p/6558113</t>
         </is>
       </c>
       <c r="D526" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E526" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -36631,81 +36623,81 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>6.67/1kg</t>
+          <t>0.46/100g</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
         </is>
       </c>
       <c r="M526" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Office Snack Box 20.00 Schweizer Franken</t>
+          <t>Prix Garantie Trauben weiss 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>6558113</t>
+          <t>7027770</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Prix Garantie Trauben weiss</t>
+          <t>The Green Mountain plant-based Gulasch</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/prix-garantie-trauben-weiss/p/6558113</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-gulasch/p/7027770</t>
         </is>
       </c>
       <c r="D527" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>0.46/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -36715,7 +36707,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -36725,56 +36717,58 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M527" t="inlineStr">
         <is>
-          <t>Prix Garantie Trauben weiss 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N527" t="inlineStr"/>
+          <t>The Green Mountain plant-based Gulasch 7.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N527" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>7027770</t>
+          <t>6714133</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Gulasch</t>
+          <t>Naturaplan Bio Kiwi</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-gulasch/p/7027770</t>
-        </is>
-      </c>
-      <c r="D528" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi/p/6714133</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr"/>
       <c r="E528" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -36784,7 +36778,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -36794,39 +36788,35 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
         </is>
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Gulasch 7.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N528" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kiwi 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N528" t="inlineStr"/>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>6714133</t>
+          <t>7065419</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi</t>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi/p/6714133</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
@@ -36840,12 +36830,12 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -36855,7 +36845,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -36865,35 +36855,39 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M529" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N529" t="inlineStr"/>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N529" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>7065419</t>
+          <t>6693270</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
+          <t>Betty Bossi Zitrus Mix</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/betty-bossi-zitrus-mix/p/6693270</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
@@ -36907,12 +36901,12 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>2.33/100g</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -36922,7 +36916,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -36932,93 +36926,22 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M530" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
+          <t>Betty Bossi Zitrus Mix 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2023-01-13 12:58:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>6693270</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>Betty Bossi Zitrus Mix</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/betty-bossi-zitrus-mix/p/6693270</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
-      <c r="E531" t="n">
-        <v>0</v>
-      </c>
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2.33/100g</t>
-        </is>
-      </c>
-      <c r="I531" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J531" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
-        </is>
-      </c>
-      <c r="M531" t="inlineStr">
-        <is>
-          <t>Betty Bossi Zitrus Mix 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N531" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
-      <c r="O531" t="inlineStr">
-        <is>
-          <t>2023-01-13 12:58:18</t>
+          <t>2023-01-13 20:51:12</t>
         </is>
       </c>
     </row>
